--- a/data/trans_orig/P6705-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P6705-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>56302</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>41997</v>
+        <v>42237</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>71395</v>
+        <v>71190</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2030185374955069</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1514366930933943</v>
+        <v>0.1523036142487489</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2574430904188801</v>
+        <v>0.2567049299187192</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>46</v>
@@ -764,19 +764,19 @@
         <v>48421</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>37144</v>
+        <v>35656</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>61330</v>
+        <v>60998</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2177713264440477</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1670518057734091</v>
+        <v>0.1603623516589614</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2758275827594407</v>
+        <v>0.2743364026006859</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>96</v>
@@ -785,19 +785,19 @@
         <v>104723</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>87101</v>
+        <v>86113</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>124424</v>
+        <v>124391</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.209583351039398</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1743155663085126</v>
+        <v>0.1723387474689953</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2490105581969019</v>
+        <v>0.2489455028646691</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>30586</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>22018</v>
+        <v>21708</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>44785</v>
+        <v>43743</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1102890972379059</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07939428966359532</v>
+        <v>0.07827689924562006</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1614912792647029</v>
+        <v>0.1577315320898789</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>31</v>
@@ -835,19 +835,19 @@
         <v>32724</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>22332</v>
+        <v>23290</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>43234</v>
+        <v>44245</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1471750233535888</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1004380565773173</v>
+        <v>0.104746057088779</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1944436464088986</v>
+        <v>0.1989908572275485</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>60</v>
@@ -856,19 +856,19 @@
         <v>63310</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>49525</v>
+        <v>48577</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>79799</v>
+        <v>79723</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1267028904662809</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09911514094386373</v>
+        <v>0.0972168580647402</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1597027704669409</v>
+        <v>0.1595513827084411</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>72354</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>58860</v>
+        <v>57315</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>87655</v>
+        <v>88777</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2608996501311583</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2122424908565517</v>
+        <v>0.2066714962404859</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.316076082183926</v>
+        <v>0.320118558855821</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>56</v>
@@ -906,19 +906,19 @@
         <v>60570</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>48479</v>
+        <v>48065</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>75400</v>
+        <v>75359</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2724106440221569</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2180322770213282</v>
+        <v>0.2161683816115149</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3391064977876801</v>
+        <v>0.3389245801163179</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>124</v>
@@ -927,19 +927,19 @@
         <v>132924</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>112795</v>
+        <v>113588</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>154813</v>
+        <v>152660</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2660219038868965</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2257388180332316</v>
+        <v>0.227325805537783</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3098286130821151</v>
+        <v>0.3055203217913391</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>58121</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>44360</v>
+        <v>43982</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>72747</v>
+        <v>72730</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.209577078637995</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1599587255344248</v>
+        <v>0.1585947614355025</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.262319308001491</v>
+        <v>0.2622569899294532</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>29</v>
@@ -977,19 +977,19 @@
         <v>34845</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23017</v>
+        <v>23371</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>47746</v>
+        <v>46336</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1567159000096506</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1035167213765965</v>
+        <v>0.1051101287571369</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2147364942731865</v>
+        <v>0.2083952011662527</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>84</v>
@@ -998,19 +998,19 @@
         <v>92966</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>75082</v>
+        <v>73871</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>111319</v>
+        <v>111307</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1860544902910825</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1502629551220314</v>
+        <v>0.1478399233562119</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2227839806558936</v>
+        <v>0.2227604920912527</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>59962</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>47142</v>
+        <v>46780</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>74655</v>
+        <v>75011</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2162156364974339</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1699877848707784</v>
+        <v>0.1686826642517701</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2691967106724565</v>
+        <v>0.2704819801772625</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>42</v>
@@ -1048,19 +1048,19 @@
         <v>45787</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>34431</v>
+        <v>34687</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>59967</v>
+        <v>60426</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.205927106170556</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1548537762429476</v>
+        <v>0.1560036400331309</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2696980897067027</v>
+        <v>0.2717652752157742</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>99</v>
@@ -1069,19 +1069,19 @@
         <v>105749</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>87400</v>
+        <v>87407</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>126475</v>
+        <v>124667</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2116373643163421</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1749153739148455</v>
+        <v>0.1749279996438344</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2531158984465131</v>
+        <v>0.2494981890687568</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>86058</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>68841</v>
+        <v>70280</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>104015</v>
+        <v>102966</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2276171063215714</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1820784279847661</v>
+        <v>0.1858856494067686</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2751109091337474</v>
+        <v>0.2723360912111635</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>58</v>
@@ -1194,19 +1194,19 @@
         <v>63597</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>50278</v>
+        <v>49707</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>78635</v>
+        <v>78528</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2490508082201583</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1968935271066945</v>
+        <v>0.1946581635003128</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3079409456865976</v>
+        <v>0.3075239247705016</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>142</v>
@@ -1215,19 +1215,19 @@
         <v>149655</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>130787</v>
+        <v>129908</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>173741</v>
+        <v>172721</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2362575706608377</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2064705254785798</v>
+        <v>0.2050828686281375</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2742821416308434</v>
+        <v>0.2726719786742135</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>65001</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>51803</v>
+        <v>53226</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>81592</v>
+        <v>84385</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1719210740764602</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1370133398517975</v>
+        <v>0.1407776997054623</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2158035621086587</v>
+        <v>0.2231912145810383</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>34</v>
@@ -1265,19 +1265,19 @@
         <v>36305</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>26251</v>
+        <v>25597</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>49647</v>
+        <v>49038</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1421728965122336</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1028003636479532</v>
+        <v>0.1002400363599707</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1944227836311851</v>
+        <v>0.1920378596531131</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>98</v>
@@ -1286,19 +1286,19 @@
         <v>101305</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>84396</v>
+        <v>85285</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>121910</v>
+        <v>122499</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1599288354693342</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1332337506934479</v>
+        <v>0.1346377237415096</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1924571145716377</v>
+        <v>0.1933875555920427</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>112742</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>97096</v>
+        <v>95326</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>132518</v>
+        <v>130996</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2981918083315128</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2568103270656472</v>
+        <v>0.2521284026210713</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3504984936587895</v>
+        <v>0.3464726359349203</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>58</v>
@@ -1336,19 +1336,19 @@
         <v>64845</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>51060</v>
+        <v>50592</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>79629</v>
+        <v>78507</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2539401295296141</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1999565171556472</v>
+        <v>0.1981223546820857</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3118335511999186</v>
+        <v>0.3074420957325943</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>167</v>
@@ -1357,19 +1357,19 @@
         <v>177587</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>155821</v>
+        <v>155350</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>202304</v>
+        <v>202815</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2803528435810661</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2459914032082627</v>
+        <v>0.2452474581088945</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3193729231368728</v>
+        <v>0.3201806824776566</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>61445</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>47286</v>
+        <v>47902</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>78441</v>
+        <v>78885</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1625166598492924</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1250684084588454</v>
+        <v>0.1266968457482331</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2074706907592591</v>
+        <v>0.2086444518867084</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>41</v>
@@ -1407,19 +1407,19 @@
         <v>45635</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>33025</v>
+        <v>33636</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>59707</v>
+        <v>59592</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1787117485092179</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.129330490055223</v>
+        <v>0.1317201768516168</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2338192086488415</v>
+        <v>0.2333696548892944</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>97</v>
@@ -1428,19 +1428,19 @@
         <v>107080</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>89206</v>
+        <v>87161</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>129756</v>
+        <v>128731</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1690453074296047</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1408271149874776</v>
+        <v>0.1375990334811484</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2048431783794853</v>
+        <v>0.2032258010624717</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>52839</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>40270</v>
+        <v>40444</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>67704</v>
+        <v>67285</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1397533514211631</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1065101283904858</v>
+        <v>0.1069699537747875</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.179071210142549</v>
+        <v>0.1779632562503688</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>43</v>
@@ -1478,19 +1478,19 @@
         <v>44974</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>34199</v>
+        <v>33727</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>57394</v>
+        <v>58477</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1761244172287761</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1339254335465255</v>
+        <v>0.1320765452962434</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2247602405807655</v>
+        <v>0.2290008751428283</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>94</v>
@@ -1499,19 +1499,19 @@
         <v>97813</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>79978</v>
+        <v>80488</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>116869</v>
+        <v>116648</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1544154428591572</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1262596396437249</v>
+        <v>0.1270648729657506</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1844987066992024</v>
+        <v>0.1841501160171432</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>76989</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>61433</v>
+        <v>61993</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>95002</v>
+        <v>95334</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1689019991126967</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1347737252528354</v>
+        <v>0.1360033681251537</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2084198451540344</v>
+        <v>0.2091486005523083</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>51</v>
@@ -1624,19 +1624,19 @@
         <v>56792</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>44170</v>
+        <v>44038</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>72640</v>
+        <v>70715</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2045329769738953</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1590757982029862</v>
+        <v>0.1585993437264193</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2616075582877426</v>
+        <v>0.2546761867669729</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>124</v>
@@ -1645,19 +1645,19 @@
         <v>133781</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>112154</v>
+        <v>113096</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>156034</v>
+        <v>156326</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1823903363487073</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1529059192711331</v>
+        <v>0.1541901343768714</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2127295586303797</v>
+        <v>0.2131268500129063</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>76146</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>61867</v>
+        <v>60927</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>92834</v>
+        <v>92800</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1670529496928335</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1357267624401743</v>
+        <v>0.1336647719892483</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2036638770895805</v>
+        <v>0.2035896305128991</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>60</v>
@@ -1695,19 +1695,19 @@
         <v>61348</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>48059</v>
+        <v>47521</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>76342</v>
+        <v>74665</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2209403882399295</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1730834476671409</v>
+        <v>0.1711440595398207</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2749424328767848</v>
+        <v>0.268901497665888</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>132</v>
@@ -1716,19 +1716,19 @@
         <v>137494</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>115552</v>
+        <v>115861</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>158532</v>
+        <v>159404</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1874523882583285</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1575387912268809</v>
+        <v>0.1579590025669318</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2161344143128262</v>
+        <v>0.2173243859295826</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>123296</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>105334</v>
+        <v>104239</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>144330</v>
+        <v>142484</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2704926512879365</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2310871086970058</v>
+        <v>0.2286838698337142</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.316638700129585</v>
+        <v>0.3125874792996781</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>54</v>
@@ -1766,19 +1766,19 @@
         <v>55991</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>44367</v>
+        <v>43498</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>70252</v>
+        <v>68782</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2016478008414946</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1597865466304559</v>
+        <v>0.1566550203768069</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2530100965374029</v>
+        <v>0.2477132695511836</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>173</v>
@@ -1787,19 +1787,19 @@
         <v>179287</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>157747</v>
+        <v>158693</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>206020</v>
+        <v>207576</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2444309876591211</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.215065217065321</v>
+        <v>0.2163550899415417</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2808772255242376</v>
+        <v>0.282998796493204</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>102067</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>84524</v>
+        <v>84692</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>122141</v>
+        <v>122437</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2239184553430862</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1854327655850779</v>
+        <v>0.1858014628339723</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2679589816500393</v>
+        <v>0.2686073729242783</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>51</v>
@@ -1837,19 +1837,19 @@
         <v>53329</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>39533</v>
+        <v>41967</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>66971</v>
+        <v>67326</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1920602283386776</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1423753257856619</v>
+        <v>0.1511413973863164</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2411940208477496</v>
+        <v>0.2424726290667737</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>146</v>
@@ -1858,19 +1858,19 @@
         <v>155395</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>132476</v>
+        <v>134906</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>176839</v>
+        <v>181332</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2118583173572356</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1806108622024302</v>
+        <v>0.1839248672558744</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2410940144165283</v>
+        <v>0.2472193699226319</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>77323</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>61150</v>
+        <v>62635</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>93571</v>
+        <v>96348</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.169633944563447</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1341529417838932</v>
+        <v>0.1374126288697565</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.205280646294648</v>
+        <v>0.2113735601199038</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>46</v>
@@ -1908,19 +1908,19 @@
         <v>50207</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>38189</v>
+        <v>38086</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>64094</v>
+        <v>65113</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1808186056060029</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1375360009664901</v>
+        <v>0.1371652081413277</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2308324441790466</v>
+        <v>0.234500982561968</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>117</v>
@@ -1929,19 +1929,19 @@
         <v>127530</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>107503</v>
+        <v>107993</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>149601</v>
+        <v>150143</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1738679703766075</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.146564844135751</v>
+        <v>0.147232123455737</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2039593270778528</v>
+        <v>0.2046981623225459</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>57145</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>44278</v>
+        <v>44401</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>73518</v>
+        <v>72726</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.194047875360172</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1503549109087661</v>
+        <v>0.1507709936280011</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2496444436506788</v>
+        <v>0.2469532677119928</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>35</v>
@@ -2054,19 +2054,19 @@
         <v>39255</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>28275</v>
+        <v>27869</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>52455</v>
+        <v>52308</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2104415834728139</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1515772088551812</v>
+        <v>0.1494042810214012</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2812079197703701</v>
+        <v>0.2804170384929248</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>87</v>
@@ -2075,19 +2075,19 @@
         <v>96400</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>78216</v>
+        <v>79454</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>114758</v>
+        <v>118962</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2004051302359693</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1626028605300785</v>
+        <v>0.1651749163886997</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2385682130109302</v>
+        <v>0.247309134348129</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>43852</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>32222</v>
+        <v>32175</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>57508</v>
+        <v>56835</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1489093895321278</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1094158927918257</v>
+        <v>0.1092547485187156</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1952800161972824</v>
+        <v>0.1929953665777587</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>21</v>
@@ -2125,19 +2125,19 @@
         <v>23842</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>14927</v>
+        <v>14803</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>33503</v>
+        <v>35750</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1278130411147047</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.08002308677030974</v>
+        <v>0.07935831619680837</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.179606455440401</v>
+        <v>0.1916510492916988</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>63</v>
@@ -2146,19 +2146,19 @@
         <v>67694</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>54389</v>
+        <v>51742</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>84792</v>
+        <v>82629</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1407285153262024</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1130679735241266</v>
+        <v>0.1075655361078661</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1762729616008925</v>
+        <v>0.1717757828381844</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>97634</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>80090</v>
+        <v>79425</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>115557</v>
+        <v>116263</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.331536291889472</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.271961763030739</v>
+        <v>0.2697029577982965</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3923972113722454</v>
+        <v>0.3947923620737682</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>56</v>
@@ -2196,19 +2196,19 @@
         <v>60295</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>48199</v>
+        <v>47382</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>74553</v>
+        <v>74956</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.323235438661339</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2583923252368168</v>
+        <v>0.254011462615773</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3996718300799342</v>
+        <v>0.4018338571039966</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>140</v>
@@ -2217,19 +2217,19 @@
         <v>157930</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>135618</v>
+        <v>138079</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>177309</v>
+        <v>182192</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3283173350009367</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2819351202363912</v>
+        <v>0.2870504223633029</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3686052832121735</v>
+        <v>0.3787556630046873</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>53801</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>39941</v>
+        <v>40931</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>69608</v>
+        <v>70116</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1826908303359814</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1356287017493938</v>
+        <v>0.1389887638008706</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2363671183907322</v>
+        <v>0.2380905267015422</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>33</v>
@@ -2267,19 +2267,19 @@
         <v>35933</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>25215</v>
+        <v>25194</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>48174</v>
+        <v>48113</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1926315113556881</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1351740211858841</v>
+        <v>0.1350647152924958</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2582564090586818</v>
+        <v>0.2579275065530929</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>82</v>
@@ -2288,19 +2288,19 @@
         <v>89734</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>73341</v>
+        <v>72875</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>108995</v>
+        <v>109471</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1865456899227849</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1524677195268163</v>
+        <v>0.1514977402346222</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2265875955443048</v>
+        <v>0.2275769851751365</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>42058</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>31303</v>
+        <v>31827</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>55324</v>
+        <v>56551</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1428156128822467</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1062965056216158</v>
+        <v>0.108074226494323</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1878636019251201</v>
+        <v>0.1920300443629917</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>24</v>
@@ -2338,19 +2338,19 @@
         <v>27212</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>18128</v>
+        <v>18500</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>39658</v>
+        <v>38832</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1458784253954543</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09718218508479813</v>
+        <v>0.09917871156796848</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2126003616075482</v>
+        <v>0.208174495630422</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>64</v>
@@ -2359,19 +2359,19 @@
         <v>69269</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>53643</v>
+        <v>54964</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>86206</v>
+        <v>89091</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1440033295141066</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1115167392983383</v>
+        <v>0.1142646551960237</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1792116140040123</v>
+        <v>0.1852102005001855</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>276495</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>246831</v>
+        <v>247924</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>309886</v>
+        <v>307599</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1966926296593044</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1755903310606326</v>
+        <v>0.1763679258065319</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2204463828237408</v>
+        <v>0.2188197805481659</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>190</v>
@@ -2484,19 +2484,19 @@
         <v>208064</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>182079</v>
+        <v>179989</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>235918</v>
+        <v>236939</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2208972177236873</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1933095588462981</v>
+        <v>0.1910902380041947</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2504692830363889</v>
+        <v>0.2515525183179658</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>449</v>
@@ -2505,19 +2505,19 @@
         <v>484559</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>443186</v>
+        <v>444191</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>523551</v>
+        <v>528106</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2064039022815191</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1887804306069272</v>
+        <v>0.1892086725209516</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.223012909931129</v>
+        <v>0.224953316252988</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>215585</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>190623</v>
+        <v>189209</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>244666</v>
+        <v>244005</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1533627838469169</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1356051888143975</v>
+        <v>0.1345993894306574</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1740506303057087</v>
+        <v>0.1735803695540326</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>146</v>
@@ -2555,19 +2555,19 @@
         <v>154218</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>130335</v>
+        <v>132072</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>177366</v>
+        <v>179900</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1637298795360543</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1383741813996166</v>
+        <v>0.1402181628021092</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1883053113409967</v>
+        <v>0.1909958617974594</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>353</v>
@@ -2576,19 +2576,19 @@
         <v>369803</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>335315</v>
+        <v>337187</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>410877</v>
+        <v>409117</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1575222304886033</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1428316723820883</v>
+        <v>0.1436291307553215</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1750183472208437</v>
+        <v>0.1742684316900029</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>406026</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>370383</v>
+        <v>372147</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>443589</v>
+        <v>442818</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2888384632797804</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2634826933902706</v>
+        <v>0.264737384270181</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3155596946519293</v>
+        <v>0.3150118296314287</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>224</v>
@@ -2626,19 +2626,19 @@
         <v>241701</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>213792</v>
+        <v>212856</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>268251</v>
+        <v>271259</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2566082680332298</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2269779408395225</v>
+        <v>0.2259840504485398</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2847960405912793</v>
+        <v>0.2879892737143996</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>604</v>
@@ -2647,19 +2647,19 @@
         <v>647727</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>601465</v>
+        <v>602576</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>692449</v>
+        <v>696748</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2759071871153644</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2562016533199433</v>
+        <v>0.2566749247701452</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2949572876140788</v>
+        <v>0.2967884124318957</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>275433</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>247347</v>
+        <v>245118</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>310138</v>
+        <v>309663</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1959374570328531</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1759573892669121</v>
+        <v>0.174371540814881</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2206259108044428</v>
+        <v>0.2202881538793534</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>154</v>
@@ -2697,19 +2697,19 @@
         <v>169742</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>146418</v>
+        <v>145680</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>197055</v>
+        <v>197788</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1802110671089603</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1554492830842166</v>
+        <v>0.1546649935140972</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2092091526365846</v>
+        <v>0.2099877290115484</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>409</v>
@@ -2718,19 +2718,19 @@
         <v>445175</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>406420</v>
+        <v>408034</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>486298</v>
+        <v>487763</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1896277747731122</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1731195100263121</v>
+        <v>0.1738070374394335</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2071446116821727</v>
+        <v>0.2077688199932799</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>232181</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>199771</v>
+        <v>204475</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>260939</v>
+        <v>261502</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1651686661811452</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1421126264801676</v>
+        <v>0.1454590874919546</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1856265064522885</v>
+        <v>0.1860268363927162</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>155</v>
@@ -2768,19 +2768,19 @@
         <v>168180</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>145556</v>
+        <v>142587</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>193910</v>
+        <v>193320</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1785535675980683</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1545338352532523</v>
+        <v>0.151381160669717</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2058698430445431</v>
+        <v>0.2052434669598403</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>374</v>
@@ -2789,19 +2789,19 @@
         <v>400361</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>365317</v>
+        <v>362512</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>438468</v>
+        <v>439102</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.170538905341401</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1556112954962657</v>
+        <v>0.1544166511677799</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1867707267957746</v>
+        <v>0.1870409293520046</v>
       </c>
     </row>
     <row r="33">
@@ -3133,19 +3133,19 @@
         <v>74307</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>60275</v>
+        <v>59593</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>92199</v>
+        <v>90950</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2531086038996433</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2053102931387243</v>
+        <v>0.2029871187391047</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3140519735821592</v>
+        <v>0.3097989145870737</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>57</v>
@@ -3154,19 +3154,19 @@
         <v>58070</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>45879</v>
+        <v>46246</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>73487</v>
+        <v>73892</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2094632352285164</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1654913830147291</v>
+        <v>0.1668123470148031</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2650751751907067</v>
+        <v>0.2665375137721623</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>124</v>
@@ -3175,19 +3175,19 @@
         <v>132377</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>110891</v>
+        <v>111797</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>152853</v>
+        <v>154331</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2319108953926201</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1942707054805495</v>
+        <v>0.1958574235747529</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2677836329635219</v>
+        <v>0.2703720523878953</v>
       </c>
     </row>
     <row r="5">
@@ -3204,19 +3204,19 @@
         <v>71057</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>56999</v>
+        <v>57414</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>87286</v>
+        <v>86837</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2420380130970224</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1941536431488535</v>
+        <v>0.1955662560025986</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2973175607473166</v>
+        <v>0.2957894678014309</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>70</v>
@@ -3225,19 +3225,19 @@
         <v>70727</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>57063</v>
+        <v>57515</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>87056</v>
+        <v>85082</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2551183586586063</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.205832862447233</v>
+        <v>0.2074638975739122</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3140196656762322</v>
+        <v>0.3069000514434032</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>135</v>
@@ -3246,19 +3246,19 @@
         <v>141784</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>120717</v>
+        <v>122099</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>162573</v>
+        <v>164655</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2483908830767648</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2114841772943412</v>
+        <v>0.2139059102049796</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2848116759446636</v>
+        <v>0.288458695161793</v>
       </c>
     </row>
     <row r="6">
@@ -3275,19 +3275,19 @@
         <v>83042</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>67236</v>
+        <v>67323</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>98339</v>
+        <v>100904</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2828619610332848</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2290231313253213</v>
+        <v>0.2293183651757158</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3349670218921988</v>
+        <v>0.3437035252015483</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>76</v>
@@ -3296,19 +3296,19 @@
         <v>78602</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>62367</v>
+        <v>63756</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>92378</v>
+        <v>93725</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2835254768483793</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2249633065642513</v>
+        <v>0.2299750773995993</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3332181017943669</v>
+        <v>0.3380764122474596</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>153</v>
@@ -3317,19 +3317,19 @@
         <v>161644</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>139579</v>
+        <v>139152</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>186438</v>
+        <v>184233</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2831842177873554</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2445277963250103</v>
+        <v>0.2437799100924593</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3266200484670607</v>
+        <v>0.3227575235418625</v>
       </c>
     </row>
     <row r="7">
@@ -3346,19 +3346,19 @@
         <v>38424</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>27586</v>
+        <v>28162</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>50911</v>
+        <v>51578</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1308819035425615</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09396560141887786</v>
+        <v>0.09592827019706515</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1734166999196453</v>
+        <v>0.1756868470127768</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>30</v>
@@ -3367,19 +3367,19 @@
         <v>30192</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21455</v>
+        <v>21453</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>41673</v>
+        <v>42014</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1089054141538884</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07739154572014029</v>
+        <v>0.07738487946659378</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1503174920910622</v>
+        <v>0.151547971476452</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>66</v>
@@ -3388,19 +3388,19 @@
         <v>68616</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>52970</v>
+        <v>54316</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>84850</v>
+        <v>85385</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.120208349159758</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09279864730876447</v>
+        <v>0.09515690451358325</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1486484425387589</v>
+        <v>0.149586033014762</v>
       </c>
     </row>
     <row r="8">
@@ -3417,19 +3417,19 @@
         <v>26748</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>16597</v>
+        <v>17458</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>38379</v>
+        <v>39372</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.09110951842748792</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05653211044737074</v>
+        <v>0.05946539564027269</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1307281916129378</v>
+        <v>0.1341095694682788</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>37</v>
@@ -3438,19 +3438,19 @@
         <v>39641</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>28873</v>
+        <v>28723</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>53323</v>
+        <v>52172</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1429875151106096</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1041473555760014</v>
+        <v>0.1036085384475837</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1923399901935601</v>
+        <v>0.1881909790163238</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>61</v>
@@ -3459,19 +3459,19 @@
         <v>66388</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>51048</v>
+        <v>53336</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>83707</v>
+        <v>84863</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1163056545835017</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08943011301772115</v>
+        <v>0.09343947897110101</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1466465977756755</v>
+        <v>0.1486708565142594</v>
       </c>
     </row>
     <row r="9">
@@ -3563,19 +3563,19 @@
         <v>85714</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>70685</v>
+        <v>70760</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>103364</v>
+        <v>103188</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2195134824329257</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1810235811941185</v>
+        <v>0.1812145551399756</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.264714863035713</v>
+        <v>0.2642640967622401</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>68</v>
@@ -3584,19 +3584,19 @@
         <v>68907</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>54405</v>
+        <v>55120</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>83911</v>
+        <v>84365</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2551611814174859</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2014600223868554</v>
+        <v>0.2041076217937443</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3107192287496315</v>
+        <v>0.3124031762724898</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>151</v>
@@ -3605,19 +3605,19 @@
         <v>154621</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>134645</v>
+        <v>134288</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>178885</v>
+        <v>177622</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2340878402686247</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2038451043060265</v>
+        <v>0.2033045426737952</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.27082129899228</v>
+        <v>0.2689096948979513</v>
       </c>
     </row>
     <row r="11">
@@ -3634,19 +3634,19 @@
         <v>80846</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>66494</v>
+        <v>64599</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>97840</v>
+        <v>98263</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2070469988109524</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1702908903769879</v>
+        <v>0.1654381110061378</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2505672370790836</v>
+        <v>0.251649454526266</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>47</v>
@@ -3655,19 +3655,19 @@
         <v>47027</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>35987</v>
+        <v>35323</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>61976</v>
+        <v>60246</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1741410385055675</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1332573565642239</v>
+        <v>0.1308008739285818</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2294939468150828</v>
+        <v>0.2230899939928558</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>124</v>
@@ -3676,19 +3676,19 @@
         <v>127874</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>109644</v>
+        <v>108700</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>148343</v>
+        <v>150242</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1935935851523119</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1659948548459169</v>
+        <v>0.1645651311169387</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2245822117112319</v>
+        <v>0.2274572943276424</v>
       </c>
     </row>
     <row r="12">
@@ -3705,19 +3705,19 @@
         <v>115009</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>96994</v>
+        <v>98099</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>132714</v>
+        <v>134558</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2945368204930697</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2483997441561087</v>
+        <v>0.2512310498846713</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3398790233134639</v>
+        <v>0.3446010208823536</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>70</v>
@@ -3726,19 +3726,19 @@
         <v>73605</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>59267</v>
+        <v>59871</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>88418</v>
+        <v>89963</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2725560685444249</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2194635597357512</v>
+        <v>0.221699985452026</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.327408573978088</v>
+        <v>0.3331300006892213</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>179</v>
@@ -3747,19 +3747,19 @@
         <v>188614</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>167511</v>
+        <v>166082</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>215702</v>
+        <v>213615</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2855501157821699</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2536017657535157</v>
+        <v>0.2514387151018378</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3265609231820372</v>
+        <v>0.3234006275979993</v>
       </c>
     </row>
     <row r="13">
@@ -3776,19 +3776,19 @@
         <v>65867</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>51996</v>
+        <v>52700</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>82674</v>
+        <v>80659</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1686850520106585</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1331601823670204</v>
+        <v>0.1349632909199114</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2117271759638933</v>
+        <v>0.2065673566827234</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>49</v>
@@ -3797,19 +3797,19 @@
         <v>49682</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>37526</v>
+        <v>37645</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>63171</v>
+        <v>63463</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1839726645548701</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1389561621486691</v>
+        <v>0.1393975535159514</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2339189711325109</v>
+        <v>0.2350022059501628</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>113</v>
@@ -3818,19 +3818,19 @@
         <v>115549</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>97362</v>
+        <v>95636</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>134367</v>
+        <v>134983</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1749353049588043</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1474011010007206</v>
+        <v>0.1447869696235595</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2034232718559719</v>
+        <v>0.2043567230109764</v>
       </c>
     </row>
     <row r="14">
@@ -3847,19 +3847,19 @@
         <v>43037</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>31798</v>
+        <v>31729</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>58712</v>
+        <v>59423</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1102176462523937</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08143504289231442</v>
+        <v>0.08125652270645954</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1503610655231552</v>
+        <v>0.1521818966671922</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>29</v>
@@ -3868,19 +3868,19 @@
         <v>30832</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>21210</v>
+        <v>21286</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>43159</v>
+        <v>44010</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1141690469776517</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07853829768818744</v>
+        <v>0.07882034352535423</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1598173230518559</v>
+        <v>0.1629692925489314</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>67</v>
@@ -3889,19 +3889,19 @@
         <v>73869</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>57731</v>
+        <v>57246</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>91561</v>
+        <v>92056</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1118331538380893</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08740189563689411</v>
+        <v>0.08666641118401798</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1386185010792844</v>
+        <v>0.1393681575034611</v>
       </c>
     </row>
     <row r="15">
@@ -3993,19 +3993,19 @@
         <v>109253</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>92931</v>
+        <v>91163</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>129608</v>
+        <v>126712</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2394921446082091</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2037117793661696</v>
+        <v>0.1998370127959802</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2841117701260948</v>
+        <v>0.2777626759361057</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>53</v>
@@ -4014,19 +4014,19 @@
         <v>53173</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>41223</v>
+        <v>41599</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>67580</v>
+        <v>67414</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1829539540575753</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1418392249447204</v>
+        <v>0.1431310795773218</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2325239362524837</v>
+        <v>0.2319557801894765</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>159</v>
@@ -4035,19 +4035,19 @@
         <v>162426</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>141671</v>
+        <v>141560</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>186288</v>
+        <v>185355</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2174896455732487</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1896986287581656</v>
+        <v>0.1895487893907103</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2494407912471587</v>
+        <v>0.2481903726026936</v>
       </c>
     </row>
     <row r="17">
@@ -4064,19 +4064,19 @@
         <v>82618</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>66089</v>
+        <v>66026</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>100555</v>
+        <v>101426</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1811048634680121</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1448722208387884</v>
+        <v>0.1447349279505397</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2204234831003442</v>
+        <v>0.2223336902673134</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>55</v>
@@ -4085,19 +4085,19 @@
         <v>55231</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>42636</v>
+        <v>42762</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>69282</v>
+        <v>69350</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1900348958790402</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1466992770900565</v>
+        <v>0.1471323214987529</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2383799680991082</v>
+        <v>0.2386141818024254</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>130</v>
@@ -4106,19 +4106,19 @@
         <v>137849</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>116721</v>
+        <v>115774</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>161710</v>
+        <v>161681</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1845800901703921</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1562898501240264</v>
+        <v>0.1550212705855191</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2165297313011177</v>
+        <v>0.2164916934572636</v>
       </c>
     </row>
     <row r="18">
@@ -4135,19 +4135,19 @@
         <v>132423</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>111967</v>
+        <v>112997</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>152623</v>
+        <v>156205</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2902816140577385</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2454412390123964</v>
+        <v>0.2476974732115477</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3345613267192434</v>
+        <v>0.3424128173989024</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>85</v>
@@ -4156,19 +4156,19 @@
         <v>84310</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>69018</v>
+        <v>70082</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>100045</v>
+        <v>99829</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2900901095684392</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2374744485778248</v>
+        <v>0.2411346493000371</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3442284390596168</v>
+        <v>0.3434875182795096</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>208</v>
@@ -4177,19 +4177,19 @@
         <v>216734</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>192628</v>
+        <v>192401</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>241637</v>
+        <v>239932</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2902070878428037</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2579292572651412</v>
+        <v>0.2576258868575904</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3235526021851993</v>
+        <v>0.3212704386032917</v>
       </c>
     </row>
     <row r="19">
@@ -4206,19 +4206,19 @@
         <v>91251</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>75181</v>
+        <v>75514</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>109030</v>
+        <v>109572</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2000287522325647</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1648016234856499</v>
+        <v>0.1655336128792825</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2390024871168686</v>
+        <v>0.2401896875989768</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>65</v>
@@ -4227,19 +4227,19 @@
         <v>64352</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>51463</v>
+        <v>51344</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>80399</v>
+        <v>79000</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2214181671971222</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1770702924881993</v>
+        <v>0.1766622208129845</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2766309151083104</v>
+        <v>0.2718186211765298</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>152</v>
@@ -4248,19 +4248,19 @@
         <v>155603</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>136272</v>
+        <v>134625</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>180600</v>
+        <v>177997</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2083526935814582</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1824681910170211</v>
+        <v>0.180262690763913</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2418234867343984</v>
+        <v>0.2383389723873499</v>
       </c>
     </row>
     <row r="20">
@@ -4277,19 +4277,19 @@
         <v>40643</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>29329</v>
+        <v>28411</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>53898</v>
+        <v>55307</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.08909262563347552</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06429250446904748</v>
+        <v>0.06227843802007627</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.11814905194905</v>
+        <v>0.1212381337187365</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>33</v>
@@ -4298,19 +4298,19 @@
         <v>33569</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>23691</v>
+        <v>23351</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>46001</v>
+        <v>45827</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1155028732978232</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08151611874999121</v>
+        <v>0.08034344685195233</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1582782024867393</v>
+        <v>0.1576793048537454</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>69</v>
@@ -4319,19 +4319,19 @@
         <v>74212</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>59102</v>
+        <v>59031</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>93578</v>
+        <v>93314</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09937048283209718</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07913838136979953</v>
+        <v>0.07904215174868397</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1253008369209568</v>
+        <v>0.1249474902065435</v>
       </c>
     </row>
     <row r="21">
@@ -4423,19 +4423,19 @@
         <v>87913</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>70875</v>
+        <v>72225</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>104373</v>
+        <v>103869</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3195117225804683</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2575868586802959</v>
+        <v>0.2624935266192528</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3793311892704966</v>
+        <v>0.3774991625563029</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>49</v>
@@ -4444,19 +4444,19 @@
         <v>49726</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>37519</v>
+        <v>37844</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>62690</v>
+        <v>61746</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2562370072364483</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1933322685969036</v>
+        <v>0.1950074814253733</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3230383539729691</v>
+        <v>0.3181726553210351</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>130</v>
@@ -4465,19 +4465,19 @@
         <v>137639</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>117647</v>
+        <v>116855</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>158593</v>
+        <v>158699</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2933417327447894</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2507321581071194</v>
+        <v>0.2490447850579176</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3379986265161309</v>
+        <v>0.3382242006137865</v>
       </c>
     </row>
     <row r="23">
@@ -4494,19 +4494,19 @@
         <v>36990</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>26281</v>
+        <v>25701</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>49561</v>
+        <v>49905</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1344360975037109</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.09551649522215994</v>
+        <v>0.09340610398123965</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1801238319218176</v>
+        <v>0.1813759433967862</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>31</v>
@@ -4515,19 +4515,19 @@
         <v>32113</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>22598</v>
+        <v>22915</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>42090</v>
+        <v>43099</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1654757029892713</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1164489166672034</v>
+        <v>0.1180823485536051</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2168873563144945</v>
+        <v>0.2220897214997222</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>65</v>
@@ -4536,19 +4536,19 @@
         <v>69103</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>54215</v>
+        <v>54478</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>85638</v>
+        <v>86487</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1472738662023791</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1155455959209673</v>
+        <v>0.1161045308357729</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1825134587150774</v>
+        <v>0.1843233212115081</v>
       </c>
     </row>
     <row r="24">
@@ -4565,19 +4565,19 @@
         <v>74184</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>58419</v>
+        <v>60089</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>89963</v>
+        <v>90412</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2696127920548172</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2123159968832802</v>
+        <v>0.2183854439847989</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3269600564480982</v>
+        <v>0.3285924099179126</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>43</v>
@@ -4586,19 +4586,19 @@
         <v>46731</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>35459</v>
+        <v>34690</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>59680</v>
+        <v>60286</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2408045764802631</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1827180578196328</v>
+        <v>0.1787589376711218</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.307528474683519</v>
+        <v>0.3106498804190581</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>108</v>
@@ -4607,19 +4607,19 @@
         <v>120915</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>101274</v>
+        <v>102124</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>141471</v>
+        <v>139677</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2576979109736274</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2158384769544635</v>
+        <v>0.2176491991283261</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3015075724047185</v>
+        <v>0.2976841269662668</v>
       </c>
     </row>
     <row r="25">
@@ -4636,19 +4636,19 @@
         <v>42407</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>31052</v>
+        <v>31127</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>56143</v>
+        <v>55439</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1541247402607261</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.112854787792507</v>
+        <v>0.1131267439687151</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2040442805251466</v>
+        <v>0.2014887677104572</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>34</v>
@@ -4657,19 +4657,19 @@
         <v>36067</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>25921</v>
+        <v>25451</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>49188</v>
+        <v>47589</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1858503060871096</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1335723489587467</v>
+        <v>0.1311477680797014</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2534657549657116</v>
+        <v>0.2452236277360069</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>73</v>
@@ -4678,19 +4678,19 @@
         <v>78474</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>64152</v>
+        <v>62311</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>95816</v>
+        <v>96723</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1672462174683843</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1367218194460368</v>
+        <v>0.1327998628419938</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2042059102382498</v>
+        <v>0.2061399236637629</v>
       </c>
     </row>
     <row r="26">
@@ -4707,19 +4707,19 @@
         <v>33655</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>23564</v>
+        <v>23537</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>45896</v>
+        <v>47043</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1223146476002775</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.08563986424754892</v>
+        <v>0.08554194087280005</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1668044508477019</v>
+        <v>0.170972736784624</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>27</v>
@@ -4728,19 +4728,19 @@
         <v>29426</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>20721</v>
+        <v>19949</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>41057</v>
+        <v>40983</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1516324072069077</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1067731726444014</v>
+        <v>0.1027976157694129</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2115643862853198</v>
+        <v>0.211183143212036</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>57</v>
@@ -4749,19 +4749,19 @@
         <v>63081</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>49887</v>
+        <v>48307</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>79722</v>
+        <v>78754</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1344402726108198</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1063207494296638</v>
+        <v>0.1029536127210711</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1699054232548879</v>
+        <v>0.1678429047585828</v>
       </c>
     </row>
     <row r="27">
@@ -4853,19 +4853,19 @@
         <v>357188</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>326798</v>
+        <v>326674</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>390081</v>
+        <v>392204</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2523604521559052</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2308887684436586</v>
+        <v>0.2308013427084152</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2755993369193339</v>
+        <v>0.2770994718004627</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>227</v>
@@ -4874,19 +4874,19 @@
         <v>229876</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>203020</v>
+        <v>202599</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>258199</v>
+        <v>255653</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2227516307356379</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1967286263702413</v>
+        <v>0.1963201634827246</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2501974174830253</v>
+        <v>0.2477305624134203</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>564</v>
@@ -4895,19 +4895,19 @@
         <v>587064</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>545897</v>
+        <v>540610</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>632340</v>
+        <v>633606</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2398753200631179</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2230543056361859</v>
+        <v>0.2208941349568614</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2583751310376432</v>
+        <v>0.2588922536088993</v>
       </c>
     </row>
     <row r="29">
@@ -4924,19 +4924,19 @@
         <v>271512</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>240254</v>
+        <v>239873</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>302664</v>
+        <v>300511</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1918280510309995</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1697443100048092</v>
+        <v>0.1694747591313805</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2138380580554368</v>
+        <v>0.2123170297810724</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>203</v>
@@ -4945,19 +4945,19 @@
         <v>205098</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>182169</v>
+        <v>180349</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>232977</v>
+        <v>232086</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1987413809722018</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1765234960304075</v>
+        <v>0.1747597664135346</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2257571769721049</v>
+        <v>0.2248931676999178</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>454</v>
@@ -4966,19 +4966,19 @@
         <v>476609</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>435200</v>
+        <v>438076</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>514265</v>
+        <v>517049</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1947431902826365</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1778235105937948</v>
+        <v>0.1789986483724213</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2101293836936195</v>
+        <v>0.2112669112799928</v>
       </c>
     </row>
     <row r="30">
@@ -4995,19 +4995,19 @@
         <v>404658</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>368824</v>
+        <v>373010</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>438075</v>
+        <v>440154</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2858985738096469</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.260581025739635</v>
+        <v>0.2635384273228689</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3095079880367865</v>
+        <v>0.3109771116866391</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>274</v>
@@ -5016,19 +5016,19 @@
         <v>283248</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>253154</v>
+        <v>256018</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>314857</v>
+        <v>315403</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2744701302111515</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2453083367061004</v>
+        <v>0.2480841633494416</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3050988944425657</v>
+        <v>0.3056282430447622</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>648</v>
@@ -5037,19 +5037,19 @@
         <v>687906</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>637353</v>
+        <v>643759</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>734866</v>
+        <v>733236</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2810795495763987</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2604234872891649</v>
+        <v>0.2630409861789436</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3002673128615877</v>
+        <v>0.2996012774870133</v>
       </c>
     </row>
     <row r="31">
@@ -5066,19 +5066,19 @@
         <v>237949</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>208622</v>
+        <v>207718</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>269326</v>
+        <v>266724</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.168115737634157</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1473954522761501</v>
+        <v>0.1467570582262073</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1902840668440459</v>
+        <v>0.1884456219896237</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>178</v>
@@ -5087,19 +5087,19 @@
         <v>180293</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>154694</v>
+        <v>158580</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>204434</v>
+        <v>204489</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1747054507414608</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1498996378767116</v>
+        <v>0.1536654362906821</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.198098616574451</v>
+        <v>0.1981514662016123</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>404</v>
@@ -5108,19 +5108,19 @@
         <v>418242</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>382632</v>
+        <v>380633</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>453995</v>
+        <v>453621</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.170894417590055</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1563440872733751</v>
+        <v>0.1555274370060205</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.185503110981962</v>
+        <v>0.1853503143974808</v>
       </c>
     </row>
     <row r="32">
@@ -5137,19 +5137,19 @@
         <v>144083</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>119642</v>
+        <v>121434</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>167769</v>
+        <v>170434</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1017971853692914</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0845294307753402</v>
+        <v>0.08579521752490285</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1185320615354099</v>
+        <v>0.1204149571243881</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>126</v>
@@ -5158,19 +5158,19 @@
         <v>133468</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>113329</v>
+        <v>113602</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>157800</v>
+        <v>155509</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.129331407339548</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1098169360642381</v>
+        <v>0.1100813845252315</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1529096103380846</v>
+        <v>0.1506893079752398</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>254</v>
@@ -5179,19 +5179,19 @@
         <v>277550</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>243919</v>
+        <v>245651</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>312524</v>
+        <v>312027</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1134075224877919</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.09966553313844875</v>
+        <v>0.1003732428143258</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1276979216881324</v>
+        <v>0.1274948324939799</v>
       </c>
     </row>
     <row r="33">
@@ -5523,19 +5523,19 @@
         <v>10409</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3727</v>
+        <v>3891</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20999</v>
+        <v>22602</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2694005946320529</v>
+        <v>0.2694005946320528</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09645325619847617</v>
+        <v>0.1006956967613728</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5434709464843418</v>
+        <v>0.5849507075271239</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -5544,19 +5544,19 @@
         <v>12672</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7472</v>
+        <v>7197</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18900</v>
+        <v>18577</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3270703865503141</v>
+        <v>0.327070386550314</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1928566082274265</v>
+        <v>0.1857645043753983</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4878370095214317</v>
+        <v>0.4794923670564392</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -5565,19 +5565,19 @@
         <v>23081</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14873</v>
+        <v>14902</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>35519</v>
+        <v>34351</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2982741960444844</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1922008541802478</v>
+        <v>0.1925781235552015</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.459007095729849</v>
+        <v>0.4439189404551721</v>
       </c>
     </row>
     <row r="5">
@@ -5594,19 +5594,19 @@
         <v>4726</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1187</v>
+        <v>1170</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10861</v>
+        <v>10947</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1223187172794517</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0307116577584052</v>
+        <v>0.03027382479629145</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2810873998985382</v>
+        <v>0.2833240104842183</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -5615,19 +5615,19 @@
         <v>2529</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6737</v>
+        <v>6932</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.06526769840288255</v>
+        <v>0.06526769840288253</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01892023577389047</v>
+        <v>0.01912367886881285</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1738771571607332</v>
+        <v>0.1789146792355537</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>7</v>
@@ -5636,19 +5636,19 @@
         <v>7255</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3256</v>
+        <v>3138</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>13769</v>
+        <v>14001</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09375491768138942</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04207775732584869</v>
+        <v>0.04055829948750727</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1779314903526211</v>
+        <v>0.1809280759931649</v>
       </c>
     </row>
     <row r="6">
@@ -5665,19 +5665,19 @@
         <v>10607</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4767</v>
+        <v>5023</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18929</v>
+        <v>18292</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2745197846763838</v>
+        <v>0.2745197846763837</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1233649239119302</v>
+        <v>0.1299914453894503</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4898938655736367</v>
+        <v>0.4734097474135036</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>13</v>
@@ -5686,19 +5686,19 @@
         <v>11079</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6470</v>
+        <v>6022</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17024</v>
+        <v>17639</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.285961708202927</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1669968921656634</v>
+        <v>0.1554351856909158</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4394134209521264</v>
+        <v>0.4552937833255576</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>21</v>
@@ -5707,19 +5707,19 @@
         <v>21686</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>13920</v>
+        <v>13885</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>32045</v>
+        <v>30964</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2802484257605268</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1798916606952003</v>
+        <v>0.1794345188078467</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4141198726835005</v>
+        <v>0.4001475047199929</v>
       </c>
     </row>
     <row r="7">
@@ -5736,19 +5736,19 @@
         <v>8180</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3121</v>
+        <v>3032</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16719</v>
+        <v>16330</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2117157899916654</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08076455385847023</v>
+        <v>0.07848131657407338</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4326981789911809</v>
+        <v>0.4226198563695006</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -5757,19 +5757,19 @@
         <v>9381</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5162</v>
+        <v>5241</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14862</v>
+        <v>15541</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2421371578901532</v>
+        <v>0.2421371578901531</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1332265318594369</v>
+        <v>0.1352807889682777</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3835993920888935</v>
+        <v>0.4011226550616628</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -5778,19 +5778,19 @@
         <v>17562</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10606</v>
+        <v>10564</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>26709</v>
+        <v>27233</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2269468914384479</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1370647331492224</v>
+        <v>0.1365202257881231</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3451567688298977</v>
+        <v>0.3519292832201535</v>
       </c>
     </row>
     <row r="8">
@@ -5807,19 +5807,19 @@
         <v>4716</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1367</v>
+        <v>1457</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11794</v>
+        <v>11503</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1220451134204462</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03537169670299155</v>
+        <v>0.03771176851319083</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3052319057372082</v>
+        <v>0.2977035564104301</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -5828,19 +5828,19 @@
         <v>3083</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>889</v>
+        <v>807</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7506</v>
+        <v>7129</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.07956304895372321</v>
+        <v>0.07956304895372319</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02294619654485182</v>
+        <v>0.02082699681353629</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1937396316228207</v>
+        <v>0.1840137035749495</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>8</v>
@@ -5849,19 +5849,19 @@
         <v>7798</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3769</v>
+        <v>3684</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>15516</v>
+        <v>15216</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1007755690751514</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04870743994156174</v>
+        <v>0.04760785800754594</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2005097884450892</v>
+        <v>0.1966302414356267</v>
       </c>
     </row>
     <row r="9">
@@ -5953,19 +5953,19 @@
         <v>27717</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18089</v>
+        <v>18326</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>38566</v>
+        <v>38660</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2372161231447719</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1548192722792637</v>
+        <v>0.1568473257463352</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3300672220214597</v>
+        <v>0.3308707720694445</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>28</v>
@@ -5974,19 +5974,19 @@
         <v>24059</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16338</v>
+        <v>16293</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32592</v>
+        <v>32577</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2450022362253089</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1663775924673981</v>
+        <v>0.1659195662391912</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.331892710067034</v>
+        <v>0.3317384729353157</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>52</v>
@@ -5995,19 +5995,19 @@
         <v>51776</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>40865</v>
+        <v>39444</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>66638</v>
+        <v>65271</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2407717230181892</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1900319472342639</v>
+        <v>0.1834242154760514</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3098832893410053</v>
+        <v>0.3035252753055616</v>
       </c>
     </row>
     <row r="11">
@@ -6024,19 +6024,19 @@
         <v>26115</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16005</v>
+        <v>16415</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>39649</v>
+        <v>38792</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2235027066590418</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1369789152280537</v>
+        <v>0.1404881163387542</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3393400864143993</v>
+        <v>0.3320076856032813</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>21</v>
@@ -6045,19 +6045,19 @@
         <v>17872</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>11558</v>
+        <v>12095</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>26527</v>
+        <v>26735</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1819919247997595</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1177016132569746</v>
+        <v>0.1231662737164708</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2701343987095026</v>
+        <v>0.2722472333459073</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>38</v>
@@ -6066,19 +6066,19 @@
         <v>43986</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>32912</v>
+        <v>31885</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>60129</v>
+        <v>59592</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2045464278074973</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1530483007854298</v>
+        <v>0.1482719786017438</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2796130478754755</v>
+        <v>0.2771143829072499</v>
       </c>
     </row>
     <row r="12">
@@ -6095,19 +6095,19 @@
         <v>30294</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>20050</v>
+        <v>20218</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>42424</v>
+        <v>42012</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2592765936489748</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1715985086399102</v>
+        <v>0.1730328944511323</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3630866515246419</v>
+        <v>0.3595587200743182</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>39</v>
@@ -6116,19 +6116,19 @@
         <v>32956</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>24917</v>
+        <v>23971</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>42976</v>
+        <v>41984</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3355937668347299</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2537304233532914</v>
+        <v>0.2441054141036724</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4376296757335771</v>
+        <v>0.4275277922379306</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>63</v>
@@ -6137,19 +6137,19 @@
         <v>63250</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>49735</v>
+        <v>49961</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>76698</v>
+        <v>78978</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2941275299906444</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2312804040324713</v>
+        <v>0.2323324940295035</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.356664080435349</v>
+        <v>0.3672681560926656</v>
       </c>
     </row>
     <row r="13">
@@ -6166,19 +6166,19 @@
         <v>26470</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17029</v>
+        <v>17140</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>37841</v>
+        <v>39058</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2265420254872042</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1457463534570496</v>
+        <v>0.1466923264358809</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3238675987564387</v>
+        <v>0.3342827888927884</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>23</v>
@@ -6187,19 +6187,19 @@
         <v>16794</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10756</v>
+        <v>11129</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>24448</v>
+        <v>24101</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1710153366740871</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1095263224107201</v>
+        <v>0.1133289413085244</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2489551667374709</v>
+        <v>0.2454281436513455</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>45</v>
@@ -6208,19 +6208,19 @@
         <v>43263</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>31680</v>
+        <v>32147</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>57123</v>
+        <v>56479</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2011852543135721</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1473200850384076</v>
+        <v>0.1494914787403812</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.265636973819686</v>
+        <v>0.2626388735648566</v>
       </c>
     </row>
     <row r="14">
@@ -6237,19 +6237,19 @@
         <v>6247</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2238</v>
+        <v>2181</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>14062</v>
+        <v>13527</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.05346255106000726</v>
+        <v>0.05346255106000725</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01915280944178691</v>
+        <v>0.01866358229192695</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1203474135250273</v>
+        <v>0.1157717510694932</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>8</v>
@@ -6258,19 +6258,19 @@
         <v>6520</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2937</v>
+        <v>3029</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>12534</v>
+        <v>12584</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0663967354661148</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02991306326813151</v>
+        <v>0.03084981026835333</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1276336335795459</v>
+        <v>0.1281410156429092</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>13</v>
@@ -6279,19 +6279,19 @@
         <v>12767</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6991</v>
+        <v>7272</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>20925</v>
+        <v>21030</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.05936906487009696</v>
+        <v>0.05936906487009697</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0325109047973467</v>
+        <v>0.03381522779602499</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.09730652697293979</v>
+        <v>0.09779451039223633</v>
       </c>
     </row>
     <row r="15">
@@ -6383,19 +6383,19 @@
         <v>31462</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>21140</v>
+        <v>21274</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>44274</v>
+        <v>44416</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2681626207765879</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1801812451704216</v>
+        <v>0.1813263356005191</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3773627586482383</v>
+        <v>0.3785708151291797</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>35</v>
@@ -6404,19 +6404,19 @@
         <v>30280</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>21795</v>
+        <v>22715</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>39481</v>
+        <v>41107</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2525212093585547</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1817580970447524</v>
+        <v>0.1894316114316351</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3292490472578017</v>
+        <v>0.3428095621194895</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>61</v>
@@ -6425,19 +6425,19 @@
         <v>61742</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>48616</v>
+        <v>48258</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>77686</v>
+        <v>78129</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2602566535884422</v>
+        <v>0.2602566535884421</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2049280407770873</v>
+        <v>0.2034174908606368</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3274632614558035</v>
+        <v>0.3293282110355462</v>
       </c>
     </row>
     <row r="17">
@@ -6454,19 +6454,19 @@
         <v>22906</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>14253</v>
+        <v>14371</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>33650</v>
+        <v>33524</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1952312176886735</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1214868018070614</v>
+        <v>0.1224893557383194</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2868066773905513</v>
+        <v>0.2857333502282048</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>26</v>
@@ -6475,19 +6475,19 @@
         <v>18424</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>12512</v>
+        <v>12110</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>26947</v>
+        <v>26538</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1536446224436858</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.104342991902587</v>
+        <v>0.1009943705574048</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2247273748128039</v>
+        <v>0.2213182573557554</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>46</v>
@@ -6496,19 +6496,19 @@
         <v>41329</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>30546</v>
+        <v>30257</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>53775</v>
+        <v>53884</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1742112311486794</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1287577545663748</v>
+        <v>0.1275403499820023</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2266741478054123</v>
+        <v>0.2271311471167958</v>
       </c>
     </row>
     <row r="18">
@@ -6525,19 +6525,19 @@
         <v>32524</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>22675</v>
+        <v>23193</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>42493</v>
+        <v>42572</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2772096391137311</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1932669013020325</v>
+        <v>0.1976840920643789</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3621854960381508</v>
+        <v>0.3628582724150805</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>65</v>
@@ -6546,19 +6546,19 @@
         <v>45981</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>36690</v>
+        <v>36787</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>55234</v>
+        <v>55473</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3834588463855071</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3059767574922858</v>
+        <v>0.3067863014221145</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4606285240379332</v>
+        <v>0.4626158280512104</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>96</v>
@@ -6567,19 +6567,19 @@
         <v>78505</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>64026</v>
+        <v>65907</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>93292</v>
+        <v>94660</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3309134081667401</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2698824931247398</v>
+        <v>0.2778112470257963</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3932438324490339</v>
+        <v>0.3990130319086364</v>
       </c>
     </row>
     <row r="19">
@@ -6596,19 +6596,19 @@
         <v>13433</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7281</v>
+        <v>7544</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>23055</v>
+        <v>23286</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1144897577902009</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06205845326029968</v>
+        <v>0.06429953675519945</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1965055323893064</v>
+        <v>0.1984711007151252</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>21</v>
@@ -6617,19 +6617,19 @@
         <v>15774</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10275</v>
+        <v>10352</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>22707</v>
+        <v>23683</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1315434962400018</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08569107055154707</v>
+        <v>0.08633369955390349</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1893680493577067</v>
+        <v>0.1975031334150308</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>34</v>
@@ -6638,19 +6638,19 @@
         <v>29206</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>20443</v>
+        <v>20997</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>40832</v>
+        <v>41532</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1231095871020174</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08617086259138042</v>
+        <v>0.08850751162075378</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1721157257628346</v>
+        <v>0.1750650309633468</v>
       </c>
     </row>
     <row r="20">
@@ -6667,19 +6667,19 @@
         <v>17001</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>9506</v>
+        <v>9176</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>31345</v>
+        <v>28803</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1449067646308065</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08102168367132961</v>
+        <v>0.07821086632003529</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2671603567111148</v>
+        <v>0.2455006131106786</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>11</v>
@@ -6688,19 +6688,19 @@
         <v>9453</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4643</v>
+        <v>4639</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>16189</v>
+        <v>16222</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07883182557225057</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03871837719813393</v>
+        <v>0.03868952339209165</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1350086859671588</v>
+        <v>0.1352814779619205</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>22</v>
@@ -6709,19 +6709,19 @@
         <v>26454</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>16852</v>
+        <v>17239</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>40392</v>
+        <v>42338</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1115091199941209</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07103486648249527</v>
+        <v>0.07266733113979312</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1702590523341131</v>
+        <v>0.1784653903566509</v>
       </c>
     </row>
     <row r="21">
@@ -6813,19 +6813,19 @@
         <v>72688</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>57262</v>
+        <v>58855</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>89804</v>
+        <v>90448</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.3602960020658061</v>
+        <v>0.360296002065806</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2838360765463347</v>
+        <v>0.2917305987887051</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4451360236208148</v>
+        <v>0.4483310288668273</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>62</v>
@@ -6834,19 +6834,19 @@
         <v>51632</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>40681</v>
+        <v>41886</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>62395</v>
+        <v>62805</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3975724342303839</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3132466630565148</v>
+        <v>0.3225252547723938</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4804527564475423</v>
+        <v>0.4836047575126244</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>120</v>
@@ -6855,19 +6855,19 @@
         <v>124320</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>107241</v>
+        <v>105941</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>144118</v>
+        <v>143965</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.3748944150694952</v>
+        <v>0.3748944150694951</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3233919495263619</v>
+        <v>0.3194731203125878</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4345960063315711</v>
+        <v>0.4341362079984076</v>
       </c>
     </row>
     <row r="23">
@@ -6884,19 +6884,19 @@
         <v>39602</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>28419</v>
+        <v>28570</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>53825</v>
+        <v>55110</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1962974466103076</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1408679755010533</v>
+        <v>0.1416134587340984</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2667993926990573</v>
+        <v>0.2731690445869335</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>34</v>
@@ -6905,19 +6905,19 @@
         <v>23287</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>16841</v>
+        <v>16222</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>32205</v>
+        <v>31320</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1793131303563585</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1296777478019141</v>
+        <v>0.1249113610537091</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2479818018066723</v>
+        <v>0.2411670799876037</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>67</v>
@@ -6926,19 +6926,19 @@
         <v>62889</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>49370</v>
+        <v>49104</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>79132</v>
+        <v>79726</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1896459499712052</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1488776596041378</v>
+        <v>0.1480772713703105</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2386266505465491</v>
+        <v>0.2404182479516734</v>
       </c>
     </row>
     <row r="24">
@@ -6955,19 +6955,19 @@
         <v>61092</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>47764</v>
+        <v>47034</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>79166</v>
+        <v>78525</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3028215785836459</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2367543959487512</v>
+        <v>0.233136784177339</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3924094847587627</v>
+        <v>0.3892317062761313</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>43</v>
@@ -6976,19 +6976,19 @@
         <v>28707</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>21444</v>
+        <v>21056</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>38790</v>
+        <v>36463</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2210452540186371</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1651209041614438</v>
+        <v>0.1621313676411413</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2986915944962705</v>
+        <v>0.2807697215742926</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>97</v>
@@ -6997,19 +6997,19 @@
         <v>89799</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>72755</v>
+        <v>73413</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>108887</v>
+        <v>105897</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2707958590981275</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2193961575669833</v>
+        <v>0.2213814117211681</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3283570707278846</v>
+        <v>0.3193382917217853</v>
       </c>
     </row>
     <row r="25">
@@ -7026,19 +7026,19 @@
         <v>13888</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7598</v>
+        <v>7739</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>22964</v>
+        <v>23055</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.06884152633263887</v>
+        <v>0.06884152633263889</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03766374180514397</v>
+        <v>0.03836237166687598</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1138292172437224</v>
+        <v>0.1142799428555426</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>14</v>
@@ -7047,19 +7047,19 @@
         <v>11870</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>6491</v>
+        <v>6484</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>19596</v>
+        <v>21547</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09140423557899016</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04997966884281051</v>
+        <v>0.04992817865674613</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1508883295434753</v>
+        <v>0.1659142315205929</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>27</v>
@@ -7068,19 +7068,19 @@
         <v>25759</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>17179</v>
+        <v>17274</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>38711</v>
+        <v>38189</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07767766565536585</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05180546382626922</v>
+        <v>0.05209147658072844</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1167342687287314</v>
+        <v>0.1151610957189619</v>
       </c>
     </row>
     <row r="26">
@@ -7097,19 +7097,19 @@
         <v>14474</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7441</v>
+        <v>7600</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>26137</v>
+        <v>25761</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.07174344640760165</v>
+        <v>0.07174344640760164</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03688391611310617</v>
+        <v>0.03767245727725687</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1295534002241025</v>
+        <v>0.1276893716991681</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>19</v>
@@ -7118,19 +7118,19 @@
         <v>14372</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>8741</v>
+        <v>9191</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>21110</v>
+        <v>21898</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1106649458156303</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.06730437448069407</v>
+        <v>0.07077225259791499</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1625481568557881</v>
+        <v>0.1686174868119523</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>29</v>
@@ -7139,19 +7139,19 @@
         <v>28846</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>18966</v>
+        <v>19097</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>40114</v>
+        <v>40221</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.08698611020580632</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.05719343253560642</v>
+        <v>0.05758812859742665</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1209662635638194</v>
+        <v>0.1212893317530073</v>
       </c>
     </row>
     <row r="27">
@@ -7243,19 +7243,19 @@
         <v>142276</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>119769</v>
+        <v>121386</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>167311</v>
+        <v>166158</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.299812382872486</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2523843332334455</v>
+        <v>0.2557927122368557</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3525666816540103</v>
+        <v>0.3501388000079053</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>139</v>
@@ -7264,19 +7264,19 @@
         <v>118643</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>101809</v>
+        <v>102537</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>135920</v>
+        <v>135983</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3067909914881413</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.263258978194258</v>
+        <v>0.2651428610104985</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3514656712505677</v>
+        <v>0.351629290990628</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>252</v>
@@ -7285,19 +7285,19 @@
         <v>260919</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>234110</v>
+        <v>235413</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>291542</v>
+        <v>292520</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.3029458728998865</v>
+        <v>0.3029458728998864</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2718180289215095</v>
+        <v>0.2733312252010254</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3385014033358632</v>
+        <v>0.3396363215953162</v>
       </c>
     </row>
     <row r="29">
@@ -7314,19 +7314,19 @@
         <v>93348</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>73924</v>
+        <v>74927</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>115270</v>
+        <v>115537</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1967086420717438</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1557766378749775</v>
+        <v>0.1578900652639086</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2429045858278166</v>
+        <v>0.2434658949292603</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>84</v>
@@ -7335,19 +7335,19 @@
         <v>62111</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>48572</v>
+        <v>50190</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>75449</v>
+        <v>75503</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1606089463032045</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1255998329369616</v>
+        <v>0.1297813129484046</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1950971305917286</v>
+        <v>0.195236227133327</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>158</v>
@@ -7356,19 +7356,19 @@
         <v>155459</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>131758</v>
+        <v>131998</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>180124</v>
+        <v>181499</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1804993884922911</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1529805204694119</v>
+        <v>0.1532591442945253</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2091370850162988</v>
+        <v>0.2107326617962115</v>
       </c>
     </row>
     <row r="30">
@@ -7385,19 +7385,19 @@
         <v>134518</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>111163</v>
+        <v>114022</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>158276</v>
+        <v>157576</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2834635799072736</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2342491149456259</v>
+        <v>0.2402739677454668</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3335279694350161</v>
+        <v>0.3320541340177171</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>160</v>
@@ -7406,19 +7406,19 @@
         <v>118723</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>104146</v>
+        <v>103596</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>135355</v>
+        <v>134301</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.3069957531127132</v>
+        <v>0.3069957531127133</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2693033730704448</v>
+        <v>0.2678801496958524</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3500036651709459</v>
+        <v>0.3472797197843627</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>277</v>
@@ -7427,19 +7427,19 @@
         <v>253240</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>227667</v>
+        <v>225767</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>280298</v>
+        <v>281665</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2940298452079079</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2643370926593802</v>
+        <v>0.2621315664890022</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3254461217737604</v>
+        <v>0.3270332963106054</v>
       </c>
     </row>
     <row r="31">
@@ -7456,19 +7456,19 @@
         <v>61971</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>47519</v>
+        <v>46877</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>81884</v>
+        <v>79192</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1305888383353489</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1001345438626504</v>
+        <v>0.09878182596503653</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1725506954073126</v>
+        <v>0.16687762992455</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>70</v>
@@ -7477,19 +7477,19 @@
         <v>53819</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>42556</v>
+        <v>43203</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>68729</v>
+        <v>67031</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1391668138032928</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1100413563455442</v>
+        <v>0.1117143180207196</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1777208205414603</v>
+        <v>0.173330159508148</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>124</v>
@@ -7498,19 +7498,19 @@
         <v>115790</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>95798</v>
+        <v>96120</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>138038</v>
+        <v>137848</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1344404657964147</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1112282633581458</v>
+        <v>0.1116023102744228</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1602719106962751</v>
+        <v>0.1600512646937562</v>
       </c>
     </row>
     <row r="32">
@@ -7527,19 +7527,19 @@
         <v>42437</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>29201</v>
+        <v>29205</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>61090</v>
+        <v>59621</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.08942655681314783</v>
+        <v>0.08942655681314784</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.06153387926418461</v>
+        <v>0.06154176014842045</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1287321094435938</v>
+        <v>0.1256377720033146</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>42</v>
@@ -7548,19 +7548,19 @@
         <v>33427</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>24343</v>
+        <v>24366</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>43902</v>
+        <v>44382</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.08643749529264823</v>
+        <v>0.08643749529264824</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.06294786651763143</v>
+        <v>0.06300724135158514</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1135217409099148</v>
+        <v>0.1147639121796559</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>72</v>
@@ -7569,19 +7569,19 @@
         <v>75865</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>59372</v>
+        <v>60523</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>94027</v>
+        <v>98274</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.08808442760349984</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.068935271579699</v>
+        <v>0.07027206133078762</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1091724669585149</v>
+        <v>0.1141033510453136</v>
       </c>
     </row>
     <row r="33">
